--- a/output/exp_03.xlsx
+++ b/output/exp_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A932BB7-DB84-4E97-B887-633CFA1E3A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2DBEC-A26E-45A2-B148-D3A1BBD1B5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,18 +445,18 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,22 +484,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.38240000000000002</v>
+        <v>0.35013</v>
       </c>
       <c r="C2">
-        <v>0.20757999999999999</v>
+        <v>0.16335</v>
       </c>
       <c r="D2">
-        <v>0.81938999999999995</v>
+        <v>0.83862999999999999</v>
       </c>
       <c r="E2">
-        <v>0.64339999999999997</v>
+        <v>0.77719000000000005</v>
       </c>
       <c r="F2">
-        <v>0.84104000000000001</v>
+        <v>0.83496999999999999</v>
       </c>
       <c r="G2">
-        <v>0.69471000000000005</v>
+        <v>0.78820000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,22 +507,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4.9489999999999999E-2</v>
+        <v>4.4330000000000001E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.85614000000000001</v>
+        <v>0.88809000000000005</v>
       </c>
       <c r="E3">
-        <v>0.84455999999999998</v>
+        <v>0.89866999999999997</v>
       </c>
       <c r="F3">
-        <v>0.85511999999999999</v>
+        <v>0.90403</v>
       </c>
       <c r="G3">
-        <v>0.84243000000000001</v>
+        <v>0.91142000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,22 +530,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.30375999999999997</v>
+        <v>0.22517000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.88461000000000001</v>
+        <v>1.0070000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>0.76642999999999994</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.88099000000000005</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="G4">
-        <v>0.72480999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,22 +553,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.40884999999999999</v>
+        <v>0.34466000000000002</v>
       </c>
       <c r="C5">
-        <v>0.27077000000000001</v>
+        <v>0.26367000000000002</v>
       </c>
       <c r="D5">
-        <v>0.93189</v>
+        <v>0.90575000000000006</v>
       </c>
       <c r="E5">
-        <v>0.94987999999999995</v>
+        <v>0.91976000000000002</v>
       </c>
       <c r="F5">
-        <v>0.93078000000000005</v>
+        <v>0.95084000000000002</v>
       </c>
       <c r="G5">
-        <v>0.94355</v>
+        <v>0.96008000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.87812000000000001</v>
+        <v>1.23E-3</v>
       </c>
       <c r="E6">
-        <v>0.87246000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.872</v>
+        <v>7.79E-3</v>
       </c>
       <c r="G6">
-        <v>0.86456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,19 +599,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3.653E-2</v>
+        <v>2.5319999999999999E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.56352000000000002</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.56145999999999996</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -622,22 +622,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.38774999999999998</v>
+        <v>0.35224</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.74173999999999995</v>
+        <v>0.84131</v>
       </c>
       <c r="E8">
-        <v>0.70555000000000001</v>
+        <v>0.74985999999999997</v>
       </c>
       <c r="F8">
-        <v>0.73912999999999995</v>
+        <v>0.88927999999999996</v>
       </c>
       <c r="G8">
-        <v>0.68742000000000003</v>
+        <v>0.73614000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,22 +645,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.24389</v>
+        <v>0.18722</v>
       </c>
       <c r="C9">
-        <v>0.14654</v>
+        <v>0.1149</v>
       </c>
       <c r="D9">
-        <v>0.66715999999999998</v>
+        <v>0.75968999999999998</v>
       </c>
       <c r="E9">
-        <v>0.64102000000000003</v>
+        <v>0.60409999999999997</v>
       </c>
       <c r="F9">
-        <v>0.66966000000000003</v>
+        <v>0.84655999999999998</v>
       </c>
       <c r="G9">
-        <v>0.64731000000000005</v>
+        <v>0.69228000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,22 +668,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.46000999999999997</v>
+        <v>0.48475000000000001</v>
       </c>
       <c r="C10">
-        <v>0.31574000000000002</v>
+        <v>0.25751000000000002</v>
       </c>
       <c r="D10">
-        <v>0.82872999999999997</v>
+        <v>0.89912000000000003</v>
       </c>
       <c r="E10">
-        <v>0.77553000000000005</v>
+        <v>0.87217999999999996</v>
       </c>
       <c r="F10">
-        <v>0.83130999999999999</v>
+        <v>0.91154000000000002</v>
       </c>
       <c r="G10">
-        <v>0.77678999999999998</v>
+        <v>0.87453999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,22 +691,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.14257</v>
+        <v>0.13428000000000001</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="D11">
-        <v>0.78188999999999997</v>
+        <v>0.11205</v>
       </c>
       <c r="E11">
-        <v>0.61377000000000004</v>
+        <v>1.31E-3</v>
       </c>
       <c r="F11">
-        <v>0.79803000000000002</v>
+        <v>0.12919</v>
       </c>
       <c r="G11">
-        <v>0.62234</v>
+        <v>1.48E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.56352000000000002</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.56145999999999996</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -737,22 +737,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.46000999999999997</v>
+        <v>0.48475000000000001</v>
       </c>
       <c r="C13">
-        <v>0.31574000000000002</v>
+        <v>0.26367000000000002</v>
       </c>
       <c r="D13">
-        <v>0.93189</v>
+        <v>0.90575000000000006</v>
       </c>
       <c r="E13">
-        <v>0.94987999999999995</v>
+        <v>0.91976000000000002</v>
       </c>
       <c r="F13">
-        <v>0.93078000000000005</v>
+        <v>0.95084000000000002</v>
       </c>
       <c r="G13">
-        <v>0.94355</v>
+        <v>0.96008000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,22 +760,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.23960500000000001</v>
+        <v>0.21940416666666671</v>
       </c>
       <c r="C14">
-        <v>0.1046975</v>
+        <v>8.8594166666666654E-2</v>
       </c>
       <c r="D14">
-        <v>0.78738333333333321</v>
+        <v>0.5135791666666667</v>
       </c>
       <c r="E14">
-        <v>0.6468733333333333</v>
+        <v>0.47856916666666671</v>
       </c>
       <c r="F14">
-        <v>0.78931333333333331</v>
+        <v>0.53959250000000014</v>
       </c>
       <c r="G14">
-        <v>0.6456225000000001</v>
+        <v>0.49368499999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,22 +783,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.24389</v>
+        <v>0.21940416666666671</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="D15">
-        <v>0.81938999999999995</v>
+        <v>0.75968999999999998</v>
       </c>
       <c r="E15">
-        <v>0.70555000000000001</v>
+        <v>0.60409999999999997</v>
       </c>
       <c r="F15">
-        <v>0.83130999999999999</v>
+        <v>0.83496999999999999</v>
       </c>
       <c r="G15">
-        <v>0.69471000000000005</v>
+        <v>0.69228000000000001</v>
       </c>
     </row>
   </sheetData>
